--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>0.8539699512497778</v>
+        <v>0.08516443535722223</v>
       </c>
       <c r="R2">
-        <v>7.685729561248001</v>
+        <v>0.7664799182150002</v>
       </c>
       <c r="S2">
-        <v>0.0003537256781624438</v>
+        <v>3.547319153750749E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003537256781624439</v>
+        <v>3.54731915375075E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>68.47760474350245</v>
+        <v>17.34282464859945</v>
       </c>
       <c r="R3">
-        <v>616.298442691522</v>
+        <v>156.085421837395</v>
       </c>
       <c r="S3">
-        <v>0.02836433195498983</v>
+        <v>0.007223735330137461</v>
       </c>
       <c r="T3">
-        <v>0.02836433195498984</v>
+        <v>0.007223735330137464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>14.24495130343889</v>
+        <v>3.3138025651</v>
       </c>
       <c r="R4">
-        <v>128.20456173095</v>
+        <v>29.8242230859</v>
       </c>
       <c r="S4">
-        <v>0.005900447729835997</v>
+        <v>0.001380284535630485</v>
       </c>
       <c r="T4">
-        <v>0.005900447729835999</v>
+        <v>0.001380284535630486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>20.24827691117867</v>
+        <v>7.973196755839336</v>
       </c>
       <c r="R5">
-        <v>182.234492200608</v>
+        <v>71.75877080255401</v>
       </c>
       <c r="S5">
-        <v>0.008387104805673324</v>
+        <v>0.003321042809710083</v>
       </c>
       <c r="T5">
-        <v>0.008387104805673328</v>
+        <v>0.003321042809710084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>1623.656079504285</v>
@@ -818,10 +818,10 @@
         <v>14612.90471553856</v>
       </c>
       <c r="S6">
-        <v>0.6725398791663599</v>
+        <v>0.6762947803000919</v>
       </c>
       <c r="T6">
-        <v>0.6725398791663602</v>
+        <v>0.6762947803000922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>337.7586274038833</v>
+        <v>310.2421773915601</v>
       </c>
       <c r="R7">
-        <v>3039.82764663495</v>
+        <v>2792.17959652404</v>
       </c>
       <c r="S7">
-        <v>0.1399041024321825</v>
+        <v>0.129223896518101</v>
       </c>
       <c r="T7">
-        <v>0.1399041024321825</v>
+        <v>0.129223896518101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>3.565772230122667</v>
+        <v>1.799212024306889</v>
       </c>
       <c r="R8">
-        <v>32.091950071104</v>
+        <v>16.192908218762</v>
       </c>
       <c r="S8">
-        <v>0.001476990142834698</v>
+        <v>0.0007494183750190555</v>
       </c>
       <c r="T8">
-        <v>0.001476990142834699</v>
+        <v>0.0007494183750190556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>285.9298983791507</v>
+        <v>366.3902486093318</v>
       </c>
       <c r="R9">
-        <v>2573.369085412356</v>
+        <v>3297.512237483986</v>
       </c>
       <c r="S9">
-        <v>0.1184359555779042</v>
+        <v>0.1526110213949962</v>
       </c>
       <c r="T9">
-        <v>0.1184359555779042</v>
+        <v>0.1526110213949963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>59.48013943923333</v>
+        <v>70.00848882868002</v>
       </c>
       <c r="R10">
-        <v>535.3212549531</v>
+        <v>630.07639945812</v>
       </c>
       <c r="S10">
-        <v>0.02463746251205698</v>
+        <v>0.02916034754477612</v>
       </c>
       <c r="T10">
-        <v>0.02463746251205699</v>
+        <v>0.02916034754477612</v>
       </c>
     </row>
   </sheetData>
